--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Thbs1-Cd47.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Thbs1-Cd47.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.4066267223055</v>
+        <v>15.18897966666667</v>
       </c>
       <c r="H2">
-        <v>5.4066267223055</v>
+        <v>45.566939</v>
       </c>
       <c r="I2">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642083</v>
       </c>
       <c r="J2">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642082</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.3104510922269</v>
+        <v>35.43134066666666</v>
       </c>
       <c r="N2">
-        <v>31.3104510922269</v>
+        <v>106.294022</v>
       </c>
       <c r="O2">
-        <v>0.07845171691163405</v>
+        <v>0.0844066430846071</v>
       </c>
       <c r="P2">
-        <v>0.07845171691163405</v>
+        <v>0.0844066430846071</v>
       </c>
       <c r="Q2">
-        <v>169.2839215626734</v>
+        <v>538.1659129487397</v>
       </c>
       <c r="R2">
-        <v>169.2839215626734</v>
+        <v>4843.493216538658</v>
       </c>
       <c r="S2">
-        <v>0.0004899363131727723</v>
+        <v>0.001120101206166364</v>
       </c>
       <c r="T2">
-        <v>0.0004899363131727723</v>
+        <v>0.001120101206166364</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.4066267223055</v>
+        <v>15.18897966666667</v>
       </c>
       <c r="H3">
-        <v>5.4066267223055</v>
+        <v>45.566939</v>
       </c>
       <c r="I3">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642083</v>
       </c>
       <c r="J3">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642082</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>82.1292300225135</v>
+        <v>82.38429266666667</v>
       </c>
       <c r="N3">
-        <v>82.1292300225135</v>
+        <v>247.152878</v>
       </c>
       <c r="O3">
-        <v>0.2057836562276895</v>
+        <v>0.1962607526571856</v>
       </c>
       <c r="P3">
-        <v>0.2057836562276895</v>
+        <v>0.1962607526571856</v>
       </c>
       <c r="Q3">
-        <v>444.0420897220966</v>
+        <v>1251.333346166716</v>
       </c>
       <c r="R3">
-        <v>444.0420897220966</v>
+        <v>11262.00011550044</v>
       </c>
       <c r="S3">
-        <v>0.001285132943068275</v>
+        <v>0.002604438439212398</v>
       </c>
       <c r="T3">
-        <v>0.001285132943068275</v>
+        <v>0.002604438439212397</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.4066267223055</v>
+        <v>15.18897966666667</v>
       </c>
       <c r="H4">
-        <v>5.4066267223055</v>
+        <v>45.566939</v>
       </c>
       <c r="I4">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642083</v>
       </c>
       <c r="J4">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642082</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>87.7402052182964</v>
+        <v>94.98039866666666</v>
       </c>
       <c r="N4">
-        <v>87.7402052182964</v>
+        <v>284.941196</v>
       </c>
       <c r="O4">
-        <v>0.2198425605967499</v>
+        <v>0.2262679441264634</v>
       </c>
       <c r="P4">
-        <v>0.2198425605967499</v>
+        <v>0.2262679441264634</v>
       </c>
       <c r="Q4">
-        <v>474.3785381538098</v>
+        <v>1442.655344079894</v>
       </c>
       <c r="R4">
-        <v>474.3785381538098</v>
+        <v>12983.89809671904</v>
       </c>
       <c r="S4">
-        <v>0.001372931757995225</v>
+        <v>0.003002642776336814</v>
       </c>
       <c r="T4">
-        <v>0.001372931757995225</v>
+        <v>0.003002642776336813</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.4066267223055</v>
+        <v>15.18897966666667</v>
       </c>
       <c r="H5">
-        <v>5.4066267223055</v>
+        <v>45.566939</v>
       </c>
       <c r="I5">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642083</v>
       </c>
       <c r="J5">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642082</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>111.233232975752</v>
+        <v>116.4226483333333</v>
       </c>
       <c r="N5">
-        <v>111.233232975752</v>
+        <v>349.267945</v>
       </c>
       <c r="O5">
-        <v>0.2787068790186147</v>
+        <v>0.2773489441815381</v>
       </c>
       <c r="P5">
-        <v>0.2787068790186147</v>
+        <v>0.2773489441815381</v>
       </c>
       <c r="Q5">
-        <v>601.3965698151341</v>
+        <v>1768.341238274484</v>
       </c>
       <c r="R5">
-        <v>601.3965698151341</v>
+        <v>15915.07114447035</v>
       </c>
       <c r="S5">
-        <v>0.001740543434072638</v>
+        <v>0.003680502808236453</v>
       </c>
       <c r="T5">
-        <v>0.001740543434072638</v>
+        <v>0.003680502808236452</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.4066267223055</v>
+        <v>15.18897966666667</v>
       </c>
       <c r="H6">
-        <v>5.4066267223055</v>
+        <v>45.566939</v>
       </c>
       <c r="I6">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642083</v>
       </c>
       <c r="J6">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642082</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>65.5656738824178</v>
+        <v>67.22401466666666</v>
       </c>
       <c r="N6">
-        <v>65.5656738824178</v>
+        <v>201.672044</v>
       </c>
       <c r="O6">
-        <v>0.1642818773639751</v>
+        <v>0.1601450384298299</v>
       </c>
       <c r="P6">
-        <v>0.1642818773639751</v>
+        <v>0.1601450384298299</v>
       </c>
       <c r="Q6">
-        <v>354.4891244786479</v>
+        <v>1021.064191883702</v>
       </c>
       <c r="R6">
-        <v>354.4891244786479</v>
+        <v>9189.577726953316</v>
       </c>
       <c r="S6">
-        <v>0.001025951508587972</v>
+        <v>0.002125172192039511</v>
       </c>
       <c r="T6">
-        <v>0.001025951508587972</v>
+        <v>0.002125172192039511</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.4066267223055</v>
+        <v>15.18897966666667</v>
       </c>
       <c r="H7">
-        <v>5.4066267223055</v>
+        <v>45.566939</v>
       </c>
       <c r="I7">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642083</v>
       </c>
       <c r="J7">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642082</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.12593421067</v>
+        <v>23.32687966666667</v>
       </c>
       <c r="N7">
-        <v>21.12593421067</v>
+        <v>69.980639</v>
       </c>
       <c r="O7">
-        <v>0.05293330988133684</v>
+        <v>0.05557067752037586</v>
       </c>
       <c r="P7">
-        <v>0.05293330988133684</v>
+        <v>0.05557067752037585</v>
       </c>
       <c r="Q7">
-        <v>114.2200404370764</v>
+        <v>354.3115009437801</v>
       </c>
       <c r="R7">
-        <v>114.2200404370764</v>
+        <v>3188.803508494021</v>
       </c>
       <c r="S7">
-        <v>0.0003305721239537099</v>
+        <v>0.0007374393844292853</v>
       </c>
       <c r="T7">
-        <v>0.0003305721239537099</v>
+        <v>0.0007374393844292851</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>93.47101091744349</v>
+        <v>95.50314333333334</v>
       </c>
       <c r="H8">
-        <v>93.47101091744349</v>
+        <v>286.50943</v>
       </c>
       <c r="I8">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543099</v>
       </c>
       <c r="J8">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543098</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>31.3104510922269</v>
+        <v>35.43134066666666</v>
       </c>
       <c r="N8">
-        <v>31.3104510922269</v>
+        <v>106.294022</v>
       </c>
       <c r="O8">
-        <v>0.07845171691163405</v>
+        <v>0.0844066430846071</v>
       </c>
       <c r="P8">
-        <v>0.07845171691163405</v>
+        <v>0.0844066430846071</v>
       </c>
       <c r="Q8">
-        <v>2926.619515871621</v>
+        <v>3383.804406180829</v>
       </c>
       <c r="R8">
-        <v>2926.619515871621</v>
+        <v>30454.23965562746</v>
       </c>
       <c r="S8">
-        <v>0.008470132085962893</v>
+        <v>0.007042815803822974</v>
       </c>
       <c r="T8">
-        <v>0.008470132085962893</v>
+        <v>0.007042815803822973</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>93.47101091744349</v>
+        <v>95.50314333333334</v>
       </c>
       <c r="H9">
-        <v>93.47101091744349</v>
+        <v>286.50943</v>
       </c>
       <c r="I9">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543099</v>
       </c>
       <c r="J9">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543098</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>82.1292300225135</v>
+        <v>82.38429266666667</v>
       </c>
       <c r="N9">
-        <v>82.1292300225135</v>
+        <v>247.152878</v>
       </c>
       <c r="O9">
-        <v>0.2057836562276895</v>
+        <v>0.1962607526571856</v>
       </c>
       <c r="P9">
-        <v>0.2057836562276895</v>
+        <v>0.1962607526571856</v>
       </c>
       <c r="Q9">
-        <v>7676.702156075587</v>
+        <v>7867.958910959949</v>
       </c>
       <c r="R9">
-        <v>7676.702156075587</v>
+        <v>70811.63019863954</v>
       </c>
       <c r="S9">
-        <v>0.02221767499803983</v>
+        <v>0.01637582398696637</v>
       </c>
       <c r="T9">
-        <v>0.02221767499803983</v>
+        <v>0.01637582398696637</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>93.47101091744349</v>
+        <v>95.50314333333334</v>
       </c>
       <c r="H10">
-        <v>93.47101091744349</v>
+        <v>286.50943</v>
       </c>
       <c r="I10">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543099</v>
       </c>
       <c r="J10">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543098</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>87.7402052182964</v>
+        <v>94.98039866666666</v>
       </c>
       <c r="N10">
-        <v>87.7402052182964</v>
+        <v>284.941196</v>
       </c>
       <c r="O10">
-        <v>0.2198425605967499</v>
+        <v>0.2262679441264634</v>
       </c>
       <c r="P10">
-        <v>0.2198425605967499</v>
+        <v>0.2262679441264634</v>
       </c>
       <c r="Q10">
-        <v>8201.165679858115</v>
+        <v>9070.926627719809</v>
       </c>
       <c r="R10">
-        <v>8201.165679858115</v>
+        <v>81638.33964947828</v>
       </c>
       <c r="S10">
-        <v>0.02373556117921789</v>
+        <v>0.01887959755957884</v>
       </c>
       <c r="T10">
-        <v>0.02373556117921789</v>
+        <v>0.01887959755957884</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>93.47101091744349</v>
+        <v>95.50314333333334</v>
       </c>
       <c r="H11">
-        <v>93.47101091744349</v>
+        <v>286.50943</v>
       </c>
       <c r="I11">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543099</v>
       </c>
       <c r="J11">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543098</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>111.233232975752</v>
+        <v>116.4226483333333</v>
       </c>
       <c r="N11">
-        <v>111.233232975752</v>
+        <v>349.267945</v>
       </c>
       <c r="O11">
-        <v>0.2787068790186147</v>
+        <v>0.2773489441815381</v>
       </c>
       <c r="P11">
-        <v>0.2787068790186147</v>
+        <v>0.2773489441815381</v>
       </c>
       <c r="Q11">
-        <v>10397.08273385905</v>
+        <v>11118.72887102459</v>
       </c>
       <c r="R11">
-        <v>10397.08273385905</v>
+        <v>100068.5598392214</v>
       </c>
       <c r="S11">
-        <v>0.03009091669992588</v>
+        <v>0.02314175112138266</v>
       </c>
       <c r="T11">
-        <v>0.03009091669992588</v>
+        <v>0.02314175112138266</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>93.47101091744349</v>
+        <v>95.50314333333334</v>
       </c>
       <c r="H12">
-        <v>93.47101091744349</v>
+        <v>286.50943</v>
       </c>
       <c r="I12">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543099</v>
       </c>
       <c r="J12">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543098</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>65.5656738824178</v>
+        <v>67.22401466666666</v>
       </c>
       <c r="N12">
-        <v>65.5656738824178</v>
+        <v>201.672044</v>
       </c>
       <c r="O12">
-        <v>0.1642818773639751</v>
+        <v>0.1601450384298299</v>
       </c>
       <c r="P12">
-        <v>0.1642818773639751</v>
+        <v>0.1601450384298299</v>
       </c>
       <c r="Q12">
-        <v>6128.489819273013</v>
+        <v>6420.104708152769</v>
       </c>
       <c r="R12">
-        <v>6128.489819273013</v>
+        <v>57780.94237337492</v>
       </c>
       <c r="S12">
-        <v>0.01773688652563415</v>
+        <v>0.01336236066664673</v>
       </c>
       <c r="T12">
-        <v>0.01773688652563415</v>
+        <v>0.01336236066664673</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>93.47101091744349</v>
+        <v>95.50314333333334</v>
       </c>
       <c r="H13">
-        <v>93.47101091744349</v>
+        <v>286.50943</v>
       </c>
       <c r="I13">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543099</v>
       </c>
       <c r="J13">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543098</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>21.12593421067</v>
+        <v>23.32687966666667</v>
       </c>
       <c r="N13">
-        <v>21.12593421067</v>
+        <v>69.980639</v>
       </c>
       <c r="O13">
-        <v>0.05293330988133684</v>
+        <v>0.05557067752037586</v>
       </c>
       <c r="P13">
-        <v>0.05293330988133684</v>
+        <v>0.05557067752037585</v>
       </c>
       <c r="Q13">
-        <v>1974.662427246729</v>
+        <v>2227.790332325086</v>
       </c>
       <c r="R13">
-        <v>1974.662427246729</v>
+        <v>20050.11299092577</v>
       </c>
       <c r="S13">
-        <v>0.005715007192859015</v>
+        <v>0.004636768287033399</v>
       </c>
       <c r="T13">
-        <v>0.005715007192859015</v>
+        <v>0.004636768287033398</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>196.805416198006</v>
+        <v>402.0913113333333</v>
       </c>
       <c r="H14">
-        <v>196.805416198006</v>
+        <v>1206.273934</v>
       </c>
       <c r="I14">
-        <v>0.2273253335145328</v>
+        <v>0.3512988470441011</v>
       </c>
       <c r="J14">
-        <v>0.2273253335145328</v>
+        <v>0.351298847044101</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>31.3104510922269</v>
+        <v>35.43134066666666</v>
       </c>
       <c r="N14">
-        <v>31.3104510922269</v>
+        <v>106.294022</v>
       </c>
       <c r="O14">
-        <v>0.07845171691163405</v>
+        <v>0.0844066430846071</v>
       </c>
       <c r="P14">
-        <v>0.07845171691163405</v>
+        <v>0.0844066430846071</v>
       </c>
       <c r="Q14">
-        <v>6162.066358553026</v>
+        <v>14246.63423095806</v>
       </c>
       <c r="R14">
-        <v>6162.066358553026</v>
+        <v>128219.7080786225</v>
       </c>
       <c r="S14">
-        <v>0.01783406271172492</v>
+        <v>0.02965195639848542</v>
       </c>
       <c r="T14">
-        <v>0.01783406271172492</v>
+        <v>0.02965195639848541</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>196.805416198006</v>
+        <v>402.0913113333333</v>
       </c>
       <c r="H15">
-        <v>196.805416198006</v>
+        <v>1206.273934</v>
       </c>
       <c r="I15">
-        <v>0.2273253335145328</v>
+        <v>0.3512988470441011</v>
       </c>
       <c r="J15">
-        <v>0.2273253335145328</v>
+        <v>0.351298847044101</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>82.1292300225135</v>
+        <v>82.38429266666667</v>
       </c>
       <c r="N15">
-        <v>82.1292300225135</v>
+        <v>247.152878</v>
       </c>
       <c r="O15">
-        <v>0.2057836562276895</v>
+        <v>0.1962607526571856</v>
       </c>
       <c r="P15">
-        <v>0.2057836562276895</v>
+        <v>0.1962607526571856</v>
       </c>
       <c r="Q15">
-        <v>16163.47729660254</v>
+        <v>33126.00827160911</v>
       </c>
       <c r="R15">
-        <v>16163.47729660254</v>
+        <v>298134.074444482</v>
       </c>
       <c r="S15">
-        <v>0.04677983828379947</v>
+        <v>0.0689461761284768</v>
       </c>
       <c r="T15">
-        <v>0.04677983828379947</v>
+        <v>0.06894617612847677</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>196.805416198006</v>
+        <v>402.0913113333333</v>
       </c>
       <c r="H16">
-        <v>196.805416198006</v>
+        <v>1206.273934</v>
       </c>
       <c r="I16">
-        <v>0.2273253335145328</v>
+        <v>0.3512988470441011</v>
       </c>
       <c r="J16">
-        <v>0.2273253335145328</v>
+        <v>0.351298847044101</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>87.7402052182964</v>
+        <v>94.98039866666666</v>
       </c>
       <c r="N16">
-        <v>87.7402052182964</v>
+        <v>284.941196</v>
       </c>
       <c r="O16">
-        <v>0.2198425605967499</v>
+        <v>0.2262679441264634</v>
       </c>
       <c r="P16">
-        <v>0.2198425605967499</v>
+        <v>0.2262679441264634</v>
       </c>
       <c r="Q16">
-        <v>17267.74760528528</v>
+        <v>38190.79305084278</v>
       </c>
       <c r="R16">
-        <v>17267.74760528528</v>
+        <v>343717.137457585</v>
       </c>
       <c r="S16">
-        <v>0.04997578340834505</v>
+        <v>0.07948766789466569</v>
       </c>
       <c r="T16">
-        <v>0.04997578340834505</v>
+        <v>0.07948766789466567</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>196.805416198006</v>
+        <v>402.0913113333333</v>
       </c>
       <c r="H17">
-        <v>196.805416198006</v>
+        <v>1206.273934</v>
       </c>
       <c r="I17">
-        <v>0.2273253335145328</v>
+        <v>0.3512988470441011</v>
       </c>
       <c r="J17">
-        <v>0.2273253335145328</v>
+        <v>0.351298847044101</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>111.233232975752</v>
+        <v>116.4226483333333</v>
       </c>
       <c r="N17">
-        <v>111.233232975752</v>
+        <v>349.267945</v>
       </c>
       <c r="O17">
-        <v>0.2787068790186147</v>
+        <v>0.2773489441815381</v>
       </c>
       <c r="P17">
-        <v>0.2787068790186147</v>
+        <v>0.2773489441815381</v>
       </c>
       <c r="Q17">
-        <v>21891.30271084264</v>
+        <v>46812.53533724951</v>
       </c>
       <c r="R17">
-        <v>21891.30271084264</v>
+        <v>421312.8180352456</v>
       </c>
       <c r="S17">
-        <v>0.06335713422570112</v>
+        <v>0.09743236431987308</v>
       </c>
       <c r="T17">
-        <v>0.06335713422570112</v>
+        <v>0.09743236431987305</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>196.805416198006</v>
+        <v>402.0913113333333</v>
       </c>
       <c r="H18">
-        <v>196.805416198006</v>
+        <v>1206.273934</v>
       </c>
       <c r="I18">
-        <v>0.2273253335145328</v>
+        <v>0.3512988470441011</v>
       </c>
       <c r="J18">
-        <v>0.2273253335145328</v>
+        <v>0.351298847044101</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>65.5656738824178</v>
+        <v>67.22401466666666</v>
       </c>
       <c r="N18">
-        <v>65.5656738824178</v>
+        <v>201.672044</v>
       </c>
       <c r="O18">
-        <v>0.1642818773639751</v>
+        <v>0.1601450384298299</v>
       </c>
       <c r="P18">
-        <v>0.1642818773639751</v>
+        <v>0.1601450384298299</v>
       </c>
       <c r="Q18">
-        <v>12903.67973673197</v>
+        <v>27030.19221041123</v>
       </c>
       <c r="R18">
-        <v>12903.67973673197</v>
+        <v>243271.7298937011</v>
       </c>
       <c r="S18">
-        <v>0.03734543256215921</v>
+        <v>0.05625876736023249</v>
       </c>
       <c r="T18">
-        <v>0.03734543256215921</v>
+        <v>0.05625876736023247</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>196.805416198006</v>
+        <v>402.0913113333333</v>
       </c>
       <c r="H19">
-        <v>196.805416198006</v>
+        <v>1206.273934</v>
       </c>
       <c r="I19">
-        <v>0.2273253335145328</v>
+        <v>0.3512988470441011</v>
       </c>
       <c r="J19">
-        <v>0.2273253335145328</v>
+        <v>0.351298847044101</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>21.12593421067</v>
+        <v>23.32687966666667</v>
       </c>
       <c r="N19">
-        <v>21.12593421067</v>
+        <v>69.980639</v>
       </c>
       <c r="O19">
-        <v>0.05293330988133684</v>
+        <v>0.05557067752037586</v>
       </c>
       <c r="P19">
-        <v>0.05293330988133684</v>
+        <v>0.05557067752037585</v>
       </c>
       <c r="Q19">
-        <v>4157.698274902602</v>
+        <v>9379.535634484868</v>
       </c>
       <c r="R19">
-        <v>4157.698274902602</v>
+        <v>84415.82071036381</v>
       </c>
       <c r="S19">
-        <v>0.01203308232280301</v>
+        <v>0.01952191494236758</v>
       </c>
       <c r="T19">
-        <v>0.01203308232280301</v>
+        <v>0.01952191494236758</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>168.07592746158</v>
+        <v>192.2123056666667</v>
       </c>
       <c r="H20">
-        <v>168.07592746158</v>
+        <v>576.636917</v>
       </c>
       <c r="I20">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="J20">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>31.3104510922269</v>
+        <v>35.43134066666666</v>
       </c>
       <c r="N20">
-        <v>31.3104510922269</v>
+        <v>106.294022</v>
       </c>
       <c r="O20">
-        <v>0.07845171691163405</v>
+        <v>0.0844066430846071</v>
       </c>
       <c r="P20">
-        <v>0.07845171691163405</v>
+        <v>0.0844066430846071</v>
       </c>
       <c r="Q20">
-        <v>5262.533106566476</v>
+        <v>6810.339682401131</v>
       </c>
       <c r="R20">
-        <v>5262.533106566476</v>
+        <v>61293.05714161017</v>
       </c>
       <c r="S20">
-        <v>0.01523066127237771</v>
+        <v>0.01417456867690308</v>
       </c>
       <c r="T20">
-        <v>0.01523066127237771</v>
+        <v>0.01417456867690308</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>168.07592746158</v>
+        <v>192.2123056666667</v>
       </c>
       <c r="H21">
-        <v>168.07592746158</v>
+        <v>576.636917</v>
       </c>
       <c r="I21">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="J21">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>82.1292300225135</v>
+        <v>82.38429266666667</v>
       </c>
       <c r="N21">
-        <v>82.1292300225135</v>
+        <v>247.152878</v>
       </c>
       <c r="O21">
-        <v>0.2057836562276895</v>
+        <v>0.1962607526571856</v>
       </c>
       <c r="P21">
-        <v>0.2057836562276895</v>
+        <v>0.1962607526571856</v>
       </c>
       <c r="Q21">
-        <v>13803.9465077394</v>
+        <v>15835.27484417746</v>
       </c>
       <c r="R21">
-        <v>13803.9465077394</v>
+        <v>142517.4735975971</v>
       </c>
       <c r="S21">
-        <v>0.03995095692967003</v>
+        <v>0.03295844278905214</v>
       </c>
       <c r="T21">
-        <v>0.03995095692967003</v>
+        <v>0.03295844278905214</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>168.07592746158</v>
+        <v>192.2123056666667</v>
       </c>
       <c r="H22">
-        <v>168.07592746158</v>
+        <v>576.636917</v>
       </c>
       <c r="I22">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="J22">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>87.7402052182964</v>
+        <v>94.98039866666666</v>
       </c>
       <c r="N22">
-        <v>87.7402052182964</v>
+        <v>284.941196</v>
       </c>
       <c r="O22">
-        <v>0.2198425605967499</v>
+        <v>0.2262679441264634</v>
       </c>
       <c r="P22">
-        <v>0.2198425605967499</v>
+        <v>0.2262679441264634</v>
       </c>
       <c r="Q22">
-        <v>14747.01636773453</v>
+        <v>18256.40142085919</v>
       </c>
       <c r="R22">
-        <v>14747.01636773453</v>
+        <v>164307.6127877327</v>
       </c>
       <c r="S22">
-        <v>0.04268036067933043</v>
+        <v>0.03799760772605728</v>
       </c>
       <c r="T22">
-        <v>0.04268036067933043</v>
+        <v>0.03799760772605728</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>168.07592746158</v>
+        <v>192.2123056666667</v>
       </c>
       <c r="H23">
-        <v>168.07592746158</v>
+        <v>576.636917</v>
       </c>
       <c r="I23">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="J23">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>111.233232975752</v>
+        <v>116.4226483333333</v>
       </c>
       <c r="N23">
-        <v>111.233232975752</v>
+        <v>349.267945</v>
       </c>
       <c r="O23">
-        <v>0.2787068790186147</v>
+        <v>0.2773489441815381</v>
       </c>
       <c r="P23">
-        <v>0.2787068790186147</v>
+        <v>0.2773489441815381</v>
       </c>
       <c r="Q23">
-        <v>18695.62879694952</v>
+        <v>22377.86566796951</v>
       </c>
       <c r="R23">
-        <v>18695.62879694952</v>
+        <v>201400.7910117256</v>
       </c>
       <c r="S23">
-        <v>0.05410831318574463</v>
+        <v>0.04657573756164114</v>
       </c>
       <c r="T23">
-        <v>0.05410831318574463</v>
+        <v>0.04657573756164114</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>168.07592746158</v>
+        <v>192.2123056666667</v>
       </c>
       <c r="H24">
-        <v>168.07592746158</v>
+        <v>576.636917</v>
       </c>
       <c r="I24">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="J24">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>65.5656738824178</v>
+        <v>67.22401466666666</v>
       </c>
       <c r="N24">
-        <v>65.5656738824178</v>
+        <v>201.672044</v>
       </c>
       <c r="O24">
-        <v>0.1642818773639751</v>
+        <v>0.1601450384298299</v>
       </c>
       <c r="P24">
-        <v>0.1642818773639751</v>
+        <v>0.1601450384298299</v>
       </c>
       <c r="Q24">
-        <v>11020.01144743086</v>
+        <v>12921.28285524982</v>
       </c>
       <c r="R24">
-        <v>11020.01144743086</v>
+        <v>116291.5456972484</v>
       </c>
       <c r="S24">
-        <v>0.03189377780143835</v>
+        <v>0.02689346196618113</v>
       </c>
       <c r="T24">
-        <v>0.03189377780143835</v>
+        <v>0.02689346196618113</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>168.07592746158</v>
+        <v>192.2123056666667</v>
       </c>
       <c r="H25">
-        <v>168.07592746158</v>
+        <v>576.636917</v>
       </c>
       <c r="I25">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="J25">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>21.12593421067</v>
+        <v>23.32687966666667</v>
       </c>
       <c r="N25">
-        <v>21.12593421067</v>
+        <v>69.980639</v>
       </c>
       <c r="O25">
-        <v>0.05293330988133684</v>
+        <v>0.05557067752037586</v>
       </c>
       <c r="P25">
-        <v>0.05293330988133684</v>
+        <v>0.05557067752037585</v>
       </c>
       <c r="Q25">
-        <v>3550.760985950682</v>
+        <v>4483.713324738885</v>
       </c>
       <c r="R25">
-        <v>3550.760985950682</v>
+        <v>40353.41992264996</v>
       </c>
       <c r="S25">
-        <v>0.01027650311001528</v>
+        <v>0.009332089941606147</v>
       </c>
       <c r="T25">
-        <v>0.01027650311001528</v>
+        <v>0.009332089941606145</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>365.972334762252</v>
+        <v>402.444082</v>
       </c>
       <c r="H26">
-        <v>365.972334762252</v>
+        <v>1207.332246</v>
       </c>
       <c r="I26">
-        <v>0.4227260848005264</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="J26">
-        <v>0.4227260848005264</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>31.3104510922269</v>
+        <v>35.43134066666666</v>
       </c>
       <c r="N26">
-        <v>31.3104510922269</v>
+        <v>106.294022</v>
       </c>
       <c r="O26">
-        <v>0.07845171691163405</v>
+        <v>0.0844066430846071</v>
       </c>
       <c r="P26">
-        <v>0.07845171691163405</v>
+        <v>0.0844066430846071</v>
       </c>
       <c r="Q26">
-        <v>11458.75888868158</v>
+        <v>14259.13336862593</v>
       </c>
       <c r="R26">
-        <v>11458.75888868158</v>
+        <v>128332.2003176334</v>
       </c>
       <c r="S26">
-        <v>0.03316358713593431</v>
+        <v>0.02967797123673691</v>
       </c>
       <c r="T26">
-        <v>0.03316358713593431</v>
+        <v>0.0296779712367369</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>365.972334762252</v>
+        <v>402.444082</v>
       </c>
       <c r="H27">
-        <v>365.972334762252</v>
+        <v>1207.332246</v>
       </c>
       <c r="I27">
-        <v>0.4227260848005264</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="J27">
-        <v>0.4227260848005264</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>82.1292300225135</v>
+        <v>82.38429266666667</v>
       </c>
       <c r="N27">
-        <v>82.1292300225135</v>
+        <v>247.152878</v>
       </c>
       <c r="O27">
-        <v>0.2057836562276895</v>
+        <v>0.1962607526571856</v>
       </c>
       <c r="P27">
-        <v>0.2057836562276895</v>
+        <v>0.1962607526571856</v>
       </c>
       <c r="Q27">
-        <v>30057.02606356531</v>
+        <v>33155.071033456</v>
       </c>
       <c r="R27">
-        <v>30057.02606356531</v>
+        <v>298395.6393011039</v>
       </c>
       <c r="S27">
-        <v>0.08699011931306863</v>
+        <v>0.06900666534530743</v>
       </c>
       <c r="T27">
-        <v>0.08699011931306863</v>
+        <v>0.06900666534530743</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>365.972334762252</v>
+        <v>402.444082</v>
       </c>
       <c r="H28">
-        <v>365.972334762252</v>
+        <v>1207.332246</v>
       </c>
       <c r="I28">
-        <v>0.4227260848005264</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="J28">
-        <v>0.4227260848005264</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>87.7402052182964</v>
+        <v>94.98039866666666</v>
       </c>
       <c r="N28">
-        <v>87.7402052182964</v>
+        <v>284.941196</v>
       </c>
       <c r="O28">
-        <v>0.2198425605967499</v>
+        <v>0.2262679441264634</v>
       </c>
       <c r="P28">
-        <v>0.2198425605967499</v>
+        <v>0.2262679441264634</v>
       </c>
       <c r="Q28">
-        <v>32110.48775625906</v>
+        <v>38224.29934940069</v>
       </c>
       <c r="R28">
-        <v>32110.48775625906</v>
+        <v>344018.6941446062</v>
       </c>
       <c r="S28">
-        <v>0.09293318491358656</v>
+        <v>0.07955740558062065</v>
       </c>
       <c r="T28">
-        <v>0.09293318491358656</v>
+        <v>0.07955740558062063</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>365.972334762252</v>
+        <v>402.444082</v>
       </c>
       <c r="H29">
-        <v>365.972334762252</v>
+        <v>1207.332246</v>
       </c>
       <c r="I29">
-        <v>0.4227260848005264</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="J29">
-        <v>0.4227260848005264</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>111.233232975752</v>
+        <v>116.4226483333333</v>
       </c>
       <c r="N29">
-        <v>111.233232975752</v>
+        <v>349.267945</v>
       </c>
       <c r="O29">
-        <v>0.2787068790186147</v>
+        <v>0.2773489441815381</v>
       </c>
       <c r="P29">
-        <v>0.2787068790186147</v>
+        <v>0.2773489441815381</v>
       </c>
       <c r="Q29">
-        <v>40708.28597528948</v>
+        <v>46853.60583251716</v>
       </c>
       <c r="R29">
-        <v>40708.28597528948</v>
+        <v>421682.4524926544</v>
       </c>
       <c r="S29">
-        <v>0.117816667774513</v>
+        <v>0.09751784560023712</v>
       </c>
       <c r="T29">
-        <v>0.117816667774513</v>
+        <v>0.0975178456002371</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>365.972334762252</v>
+        <v>402.444082</v>
       </c>
       <c r="H30">
-        <v>365.972334762252</v>
+        <v>1207.332246</v>
       </c>
       <c r="I30">
-        <v>0.4227260848005264</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="J30">
-        <v>0.4227260848005264</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>65.5656738824178</v>
+        <v>67.22401466666666</v>
       </c>
       <c r="N30">
-        <v>65.5656738824178</v>
+        <v>201.672044</v>
       </c>
       <c r="O30">
-        <v>0.1642818773639751</v>
+        <v>0.1601450384298299</v>
       </c>
       <c r="P30">
-        <v>0.1642818773639751</v>
+        <v>0.1601450384298299</v>
       </c>
       <c r="Q30">
-        <v>23995.22275100885</v>
+        <v>27053.9068708812</v>
       </c>
       <c r="R30">
-        <v>23995.22275100885</v>
+        <v>243485.1618379308</v>
       </c>
       <c r="S30">
-        <v>0.06944623482175341</v>
+        <v>0.05630812540978024</v>
       </c>
       <c r="T30">
-        <v>0.06944623482175341</v>
+        <v>0.05630812540978024</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>365.972334762252</v>
+        <v>402.444082</v>
       </c>
       <c r="H31">
-        <v>365.972334762252</v>
+        <v>1207.332246</v>
       </c>
       <c r="I31">
-        <v>0.4227260848005264</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="J31">
-        <v>0.4227260848005264</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>21.12593421067</v>
+        <v>23.32687966666667</v>
       </c>
       <c r="N31">
-        <v>21.12593421067</v>
+        <v>69.980639</v>
       </c>
       <c r="O31">
-        <v>0.05293330988133684</v>
+        <v>0.05557067752037586</v>
       </c>
       <c r="P31">
-        <v>0.05293330988133684</v>
+        <v>0.05557067752037585</v>
       </c>
       <c r="Q31">
-        <v>7731.507467112633</v>
+        <v>9387.764673376132</v>
       </c>
       <c r="R31">
-        <v>7731.507467112633</v>
+        <v>84489.88206038519</v>
       </c>
       <c r="S31">
-        <v>0.02237629084167054</v>
+        <v>0.01953904229318248</v>
       </c>
       <c r="T31">
-        <v>0.02237629084167054</v>
+        <v>0.01953904229318248</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>36.012123771195</v>
+        <v>37.14495166666666</v>
       </c>
       <c r="H32">
-        <v>36.012123771195</v>
+        <v>111.434855</v>
       </c>
       <c r="I32">
-        <v>0.04159676194387419</v>
+        <v>0.03245277459674146</v>
       </c>
       <c r="J32">
-        <v>0.04159676194387419</v>
+        <v>0.03245277459674145</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>31.3104510922269</v>
+        <v>35.43134066666666</v>
       </c>
       <c r="N32">
-        <v>31.3104510922269</v>
+        <v>106.294022</v>
       </c>
       <c r="O32">
-        <v>0.07845171691163405</v>
+        <v>0.0844066430846071</v>
       </c>
       <c r="P32">
-        <v>0.07845171691163405</v>
+        <v>0.0844066430846071</v>
       </c>
       <c r="Q32">
-        <v>1127.555840065223</v>
+        <v>1316.095436548534</v>
       </c>
       <c r="R32">
-        <v>1127.555840065223</v>
+        <v>11844.85892893681</v>
       </c>
       <c r="S32">
-        <v>0.00326333739246145</v>
+        <v>0.002739229762492361</v>
       </c>
       <c r="T32">
-        <v>0.00326333739246145</v>
+        <v>0.00273922976249236</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>36.012123771195</v>
+        <v>37.14495166666666</v>
       </c>
       <c r="H33">
-        <v>36.012123771195</v>
+        <v>111.434855</v>
       </c>
       <c r="I33">
-        <v>0.04159676194387419</v>
+        <v>0.03245277459674146</v>
       </c>
       <c r="J33">
-        <v>0.04159676194387419</v>
+        <v>0.03245277459674145</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>82.1292300225135</v>
+        <v>82.38429266666667</v>
       </c>
       <c r="N33">
-        <v>82.1292300225135</v>
+        <v>247.152878</v>
       </c>
       <c r="O33">
-        <v>0.2057836562276895</v>
+        <v>0.1962607526571856</v>
       </c>
       <c r="P33">
-        <v>0.2057836562276895</v>
+        <v>0.1962607526571856</v>
       </c>
       <c r="Q33">
-        <v>2957.6479968037</v>
+        <v>3060.160569195854</v>
       </c>
       <c r="R33">
-        <v>2957.6479968037</v>
+        <v>27541.44512276269</v>
       </c>
       <c r="S33">
-        <v>0.008559933760043242</v>
+        <v>0.006369205968170471</v>
       </c>
       <c r="T33">
-        <v>0.008559933760043242</v>
+        <v>0.00636920596817047</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>36.012123771195</v>
+        <v>37.14495166666666</v>
       </c>
       <c r="H34">
-        <v>36.012123771195</v>
+        <v>111.434855</v>
       </c>
       <c r="I34">
-        <v>0.04159676194387419</v>
+        <v>0.03245277459674146</v>
       </c>
       <c r="J34">
-        <v>0.04159676194387419</v>
+        <v>0.03245277459674145</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>87.7402052182964</v>
+        <v>94.98039866666666</v>
       </c>
       <c r="N34">
-        <v>87.7402052182964</v>
+        <v>284.941196</v>
       </c>
       <c r="O34">
-        <v>0.2198425605967499</v>
+        <v>0.2262679441264634</v>
       </c>
       <c r="P34">
-        <v>0.2198425605967499</v>
+        <v>0.2262679441264634</v>
       </c>
       <c r="Q34">
-        <v>3159.711130031339</v>
+        <v>3528.042317754064</v>
       </c>
       <c r="R34">
-        <v>3159.711130031339</v>
+        <v>31752.38085978658</v>
       </c>
       <c r="S34">
-        <v>0.009144738658274741</v>
+        <v>0.007343022589204209</v>
       </c>
       <c r="T34">
-        <v>0.009144738658274741</v>
+        <v>0.007343022589204207</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>36.012123771195</v>
+        <v>37.14495166666666</v>
       </c>
       <c r="H35">
-        <v>36.012123771195</v>
+        <v>111.434855</v>
       </c>
       <c r="I35">
-        <v>0.04159676194387419</v>
+        <v>0.03245277459674146</v>
       </c>
       <c r="J35">
-        <v>0.04159676194387419</v>
+        <v>0.03245277459674145</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>111.233232975752</v>
+        <v>116.4226483333333</v>
       </c>
       <c r="N35">
-        <v>111.233232975752</v>
+        <v>349.267945</v>
       </c>
       <c r="O35">
-        <v>0.2787068790186147</v>
+        <v>0.2773489441815381</v>
       </c>
       <c r="P35">
-        <v>0.2787068790186147</v>
+        <v>0.2773489441815381</v>
       </c>
       <c r="Q35">
-        <v>4005.74495339295</v>
+        <v>4324.513645246997</v>
       </c>
       <c r="R35">
-        <v>4005.74495339295</v>
+        <v>38920.62280722297</v>
       </c>
       <c r="S35">
-        <v>0.01159330369865746</v>
+        <v>0.009000742770167684</v>
       </c>
       <c r="T35">
-        <v>0.01159330369865746</v>
+        <v>0.009000742770167682</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>36.012123771195</v>
+        <v>37.14495166666666</v>
       </c>
       <c r="H36">
-        <v>36.012123771195</v>
+        <v>111.434855</v>
       </c>
       <c r="I36">
-        <v>0.04159676194387419</v>
+        <v>0.03245277459674146</v>
       </c>
       <c r="J36">
-        <v>0.04159676194387419</v>
+        <v>0.03245277459674145</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>65.5656738824178</v>
+        <v>67.22401466666666</v>
       </c>
       <c r="N36">
-        <v>65.5656738824178</v>
+        <v>201.672044</v>
       </c>
       <c r="O36">
-        <v>0.1642818773639751</v>
+        <v>0.1601450384298299</v>
       </c>
       <c r="P36">
-        <v>0.1642818773639751</v>
+        <v>0.1601450384298299</v>
       </c>
       <c r="Q36">
-        <v>2361.159162995437</v>
+        <v>2497.032775632624</v>
       </c>
       <c r="R36">
-        <v>2361.159162995437</v>
+        <v>22473.29498069362</v>
       </c>
       <c r="S36">
-        <v>0.006833594144402006</v>
+        <v>0.005197150834949767</v>
       </c>
       <c r="T36">
-        <v>0.006833594144402006</v>
+        <v>0.005197150834949766</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>36.012123771195</v>
+        <v>37.14495166666666</v>
       </c>
       <c r="H37">
-        <v>36.012123771195</v>
+        <v>111.434855</v>
       </c>
       <c r="I37">
-        <v>0.04159676194387419</v>
+        <v>0.03245277459674146</v>
       </c>
       <c r="J37">
-        <v>0.04159676194387419</v>
+        <v>0.03245277459674145</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>21.12593421067</v>
+        <v>23.32687966666667</v>
       </c>
       <c r="N37">
-        <v>21.12593421067</v>
+        <v>69.980639</v>
       </c>
       <c r="O37">
-        <v>0.05293330988133684</v>
+        <v>0.05557067752037586</v>
       </c>
       <c r="P37">
-        <v>0.05293330988133684</v>
+        <v>0.05557067752037585</v>
       </c>
       <c r="Q37">
-        <v>760.7897575767707</v>
+        <v>866.4758177524827</v>
       </c>
       <c r="R37">
-        <v>760.7897575767707</v>
+        <v>7798.282359772345</v>
       </c>
       <c r="S37">
-        <v>0.002201854290035292</v>
+        <v>0.001803422671756965</v>
       </c>
       <c r="T37">
-        <v>0.002201854290035292</v>
+        <v>0.001803422671756965</v>
       </c>
     </row>
   </sheetData>
